--- a/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC1_TC4/1/UC1_TC4.evaluation.xlsx
+++ b/test-code-generator/Evaluation/QualitativeEvaluation/TemplateExperts/UC1_TC4/1/UC1_TC4.evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -272,6 +272,9 @@
     </r>
   </si>
   <si>
+    <t>Strange interaction at line 42</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Aptos Narrow"/>
@@ -297,6 +300,12 @@
       </rPr>
       <t>, page object models created in the code</t>
     </r>
+  </si>
+  <si>
+    <t>It does not apply to this base use case.</t>
+  </si>
+  <si>
+    <t>strange URL string chaining at line 15</t>
   </si>
   <si>
     <r>
@@ -442,6 +451,9 @@
       </rPr>
       <t>with the correct status "passed" or "failed"</t>
     </r>
+  </si>
+  <si>
+    <t>Alcuni import non utilizzati</t>
   </si>
   <si>
     <r>
@@ -887,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -913,6 +925,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4359,7 +4374,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -4369,7 +4386,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>12</v>
@@ -4379,7 +4398,9 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -4417,8 +4438,12 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
@@ -4427,10 +4452,12 @@
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -4438,7 +4465,9 @@
         <v>22</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
@@ -4447,20 +4476,26 @@
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -7499,7 +7534,9 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
         <v>9</v>
@@ -7509,7 +7546,9 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10" t="s">
         <v>12</v>
@@ -7519,7 +7558,9 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>14</v>
@@ -7557,7 +7598,9 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -7567,10 +7610,14 @@
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -7587,20 +7634,24 @@
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -10710,7 +10761,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -10730,17 +10781,17 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="78.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -13736,43 +13787,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>42</v>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
+      <c r="B2" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>44</v>
+      <c r="B3" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>46</v>
+      <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>48</v>
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
